--- a/TomcatTakeOut.xlsx
+++ b/TomcatTakeOut.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Model" sheetId="6" r:id="rId6"/>
     <sheet name="Filed" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="178">
   <si>
     <t>Project Name:</t>
   </si>
@@ -481,12 +481,6 @@
     <t>id card picture</t>
   </si>
   <si>
-    <t>service time</t>
-  </si>
-  <si>
-    <t>id card gesture picture</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -596,19 +590,25 @@
   </si>
   <si>
     <t>total price</t>
+  </si>
+  <si>
+    <t>service begin time</t>
+  </si>
+  <si>
+    <t>service end time</t>
+  </si>
+  <si>
+    <t>store logo pic</t>
+  </si>
+  <si>
+    <t>license picture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -649,6 +649,22 @@
       <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -897,23 +913,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,40 +922,25 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -967,21 +953,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -991,26 +968,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,12 +989,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1042,179 +998,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,6 +1504,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1544,155 +1537,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-    </row>
-    <row r="3" ht="18.75" spans="1:6">
-      <c r="A3" s="84" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75">
+      <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="86" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="86" t="s">
+    <row r="5" spans="1:8">
+      <c r="C5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="86" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="8" ht="18.75" spans="1:6">
-      <c r="A8" s="84" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75">
+      <c r="A8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="60" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="33" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="55" t="s">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="https://github.com/ITA-2015-G01-O2O/G01_Project.git"/>
+    <hyperlink ref="B13" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -1705,162 +1696,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="55"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="81" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="51" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -1870,541 +1860,544 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="42" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="41"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="41"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="42" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="41"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="41"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="41"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="41"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="40" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="77" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="49"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="78"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="49"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="78"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="49"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="52" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="78"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="49"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="78"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="49"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="52" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="78"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="49"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="78"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="49"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="52" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="78"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="49"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="52" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="78"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="78"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="61"/>
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="49"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="78"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="57"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="52" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="58"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="79"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="78" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="59"/>
-      <c r="B26" s="46" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="78"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="59"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="52" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="78"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="59"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="52" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="78"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="59"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="52" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="78"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="59"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="52" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="78"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="59"/>
-      <c r="B31" s="46" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="78"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="59"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="52" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="59"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="52" t="s">
+      <c r="A33" s="68"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="78"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="59"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="52" t="s">
+      <c r="A34" s="68"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="78"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="59"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="68"/>
+      <c r="B35" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="78"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="59"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="52" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="78"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="59"/>
-      <c r="B37" s="46" t="s">
+      <c r="A37" s="68"/>
+      <c r="B37" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="78"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="59"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="52" t="s">
+      <c r="A38" s="68"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="78"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="68"/>
+      <c r="B39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="78"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="63" t="s">
+      <c r="A40" s="69"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="58"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="F11:F24"/>
+    <mergeCell ref="F25:F40"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A24"/>
     <mergeCell ref="A25:A40"/>
@@ -2421,19 +2414,15 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="F2:F10"/>
-    <mergeCell ref="F11:F24"/>
-    <mergeCell ref="F25:F40"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2442,17 +2431,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
@@ -2461,15 +2448,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="1:13">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -2477,7 +2464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="1:13">
       <c r="B3" t="s">
         <v>90</v>
       </c>
@@ -2485,7 +2472,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
         <v>92</v>
       </c>
@@ -2493,7 +2480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>94</v>
       </c>
@@ -2501,7 +2488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="1:13">
       <c r="C6" t="s">
         <v>96</v>
       </c>
@@ -2509,7 +2496,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="1:13">
       <c r="B7" t="s">
         <v>98</v>
       </c>
@@ -2517,7 +2504,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="1:13">
       <c r="C8" t="s">
         <v>100</v>
       </c>
@@ -2525,7 +2512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="1:13">
       <c r="C9" t="s">
         <v>102</v>
       </c>
@@ -2533,7 +2520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2541,7 +2528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>106</v>
       </c>
@@ -2549,35 +2536,35 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="12:12">
+    <row r="12" spans="1:13">
       <c r="L12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="12:12">
+    <row r="13" spans="1:13">
       <c r="L13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="12:12">
+    <row r="14" spans="1:13">
       <c r="L14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="12:12">
+    <row r="15" spans="1:13">
       <c r="L15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="19" t="s">
         <v>112</v>
       </c>
       <c r="L16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="1:13">
       <c r="B17" t="s">
         <v>114</v>
       </c>
@@ -2585,7 +2572,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="1:13">
       <c r="B18" t="s">
         <v>116</v>
       </c>
@@ -2593,66 +2580,64 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:13">
       <c r="B19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:13">
       <c r="B20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:13">
       <c r="B21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:13">
       <c r="B22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:13">
       <c r="B23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="1:13">
       <c r="C25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:13">
       <c r="B26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="19" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B30:M41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -2661,28 +2646,26 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" ht="15" spans="13:13">
-      <c r="M30" s="31"/>
-    </row>
-    <row r="41" ht="15" spans="2:2">
-      <c r="B41" s="30"/>
+    <row r="30" spans="13:13" ht="15">
+      <c r="M30" s="18"/>
+    </row>
+    <row r="41" spans="2:2" ht="15">
+      <c r="B41" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2697,299 +2680,311 @@
     <col min="12" max="12" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11">
+      <c r="B2" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="82"/>
+      <c r="I3" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="22" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="26" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="8:11">
-      <c r="H4" s="10"/>
-      <c r="I4" s="25" t="s">
+    <row r="4" spans="1:11">
+      <c r="H4" s="82"/>
+      <c r="I4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="22" t="s">
+      <c r="C5" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="F5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="88"/>
+      <c r="K5" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="82"/>
+      <c r="C6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="82"/>
+      <c r="I6" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="22" t="s">
+      <c r="J6" s="88"/>
+      <c r="K6" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="82"/>
+      <c r="C7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="82"/>
+      <c r="I7" s="12" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="J7" s="87"/>
+      <c r="K7" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="81"/>
+      <c r="C8" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="25" t="s">
+      <c r="E8" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="26" t="s">
+      <c r="H8" s="82"/>
+      <c r="I8" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
+    <row r="9" spans="1:11">
+      <c r="E9" s="84"/>
+      <c r="F9" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="H10" s="81"/>
+      <c r="I10" s="91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="E11" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="E12" s="85"/>
+      <c r="F12" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="E13" s="84"/>
+      <c r="F13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="82"/>
+      <c r="I13" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="87"/>
+      <c r="K13" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="H14" s="82"/>
+      <c r="I14" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="H15" s="82"/>
+      <c r="I15" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="I16" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="82"/>
+      <c r="C17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="81"/>
+      <c r="I17" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="82"/>
+      <c r="C18" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="82"/>
+      <c r="F18" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="82"/>
+      <c r="C19" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="F19" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="82"/>
+      <c r="C20" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="82"/>
+      <c r="C21" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="6"/>
-      <c r="C8" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="8:11">
-      <c r="H10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11">
-      <c r="E11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9">
-      <c r="E12" s="19"/>
-      <c r="F12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9">
-      <c r="E13" s="17"/>
-      <c r="F13" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="8:9">
-      <c r="H14" s="10"/>
-      <c r="I14" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="8:9">
-      <c r="H15" s="6"/>
-      <c r="I15" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="E21" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="10"/>
-      <c r="C17" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="10"/>
-      <c r="C18" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="10"/>
-      <c r="C19" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="22" t="s">
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="82"/>
+      <c r="C22" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="10"/>
-      <c r="C21" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="82"/>
+      <c r="F22" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="10"/>
-      <c r="C22" s="22" t="s">
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="82"/>
+      <c r="C23" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="22" t="s">
+      <c r="E23" s="82"/>
+      <c r="F23" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="10"/>
-      <c r="C23" s="22" t="s">
+    <row r="24" spans="2:9">
+      <c r="B24" s="82"/>
+      <c r="C24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="22" t="s">
+      <c r="E24" s="81"/>
+      <c r="F24" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="10"/>
-      <c r="C24" s="12" t="s">
+    <row r="25" spans="2:9">
+      <c r="B25" s="81"/>
+      <c r="C25" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="H2:H10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B16:B25"/>
@@ -2999,12 +2994,8 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="E21:E24"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/TomcatTakeOut.xlsx
+++ b/TomcatTakeOut.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="6"/>
+    <workbookView windowWidth="18390" windowHeight="10545" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Model" sheetId="6" r:id="rId6"/>
     <sheet name="Filed" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>Project Name:</t>
   </si>
@@ -481,6 +481,12 @@
     <t>id card picture</t>
   </si>
   <si>
+    <t>service begin time</t>
+  </si>
+  <si>
+    <t>license picture</t>
+  </si>
+  <si>
     <t>Account</t>
   </si>
   <si>
@@ -493,66 +499,72 @@
     <t>fund</t>
   </si>
   <si>
+    <t>service end time</t>
+  </si>
+  <si>
+    <t>real store picture</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>deliver fee</t>
   </si>
   <si>
-    <t>real store picture</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>user profile</t>
   </si>
   <si>
     <t xml:space="preserve">starting fee </t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>user profile</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Collect</t>
   </si>
   <si>
     <t>avg point</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Collect</t>
-  </si>
-  <si>
     <t>avg deliver time</t>
   </si>
   <si>
+    <t>store logo pic</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
     <t>product name</t>
   </si>
   <si>
-    <t>area</t>
+    <t>place</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>sales volume</t>
   </si>
   <si>
-    <t>place</t>
-  </si>
-  <si>
     <t>product picture</t>
   </si>
   <si>
+    <t>order item</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>product label</t>
   </si>
   <si>
-    <t>order item</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -590,25 +602,19 @@
   </si>
   <si>
     <t>total price</t>
-  </si>
-  <si>
-    <t>service begin time</t>
-  </si>
-  <si>
-    <t>service end time</t>
-  </si>
-  <si>
-    <t>store logo pic</t>
-  </si>
-  <si>
-    <t>license picture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -650,35 +656,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -848,15 +832,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -872,6 +847,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -913,8 +897,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,27 +921,39 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -959,19 +970,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -980,7 +1003,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -989,20 +1012,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1010,10 +1042,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1022,25 +1063,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
@@ -1073,10 +1141,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
@@ -1085,128 +1156,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1504,7 +1485,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1537,153 +1517,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="56" t="s">
+    <row r="1" ht="18.75" spans="1:6">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="58" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="3" ht="18.75" spans="1:6">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="53" t="s">
+    <row r="4" spans="3:6">
+      <c r="C4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="53" t="s">
+    <row r="5" spans="3:6">
+      <c r="C5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="53" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75">
-      <c r="A8" s="58" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="8" ht="18.75" spans="1:6">
+      <c r="A8" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" s="60" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="61" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://github.com/ITA-2015-G01-O2O/G01_Project.git"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -1696,161 +1678,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="80" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="51" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="72" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -1860,544 +1843,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="77" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="78"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="64"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="78"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="64"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="78"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="64"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="78"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="64"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="78"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="64"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="78"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="77" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="65"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="78"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="65"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="78"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="65"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="78"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="65"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="78"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="65"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="78"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="65"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="78"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="65"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="78"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="65"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="78"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="66"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="78"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="66"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="34" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="78"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="66"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="78"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="65"/>
-      <c r="B23" s="71" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="78"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="67"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="31" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="79"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="78" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="68"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="78"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="68"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="78"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="68"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="78"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="68"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="31" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="78"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="68"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="78"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="68"/>
-      <c r="B31" s="72" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="78"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="68"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="78"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="68"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="31" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="78"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="68"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="31" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="78"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="68"/>
-      <c r="B35" s="72" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="78"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="37"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="68"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="31" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="78"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="68"/>
-      <c r="B37" s="72" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="78"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="37"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="68"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="31" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="78"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="37"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="68"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="78"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="37"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="69"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="35" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="79"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:F10"/>
-    <mergeCell ref="F11:F24"/>
-    <mergeCell ref="F25:F40"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A24"/>
     <mergeCell ref="A25:A40"/>
@@ -2414,15 +2394,19 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="F11:F24"/>
+    <mergeCell ref="F25:F40"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2431,15 +2415,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
@@ -2448,15 +2434,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -2464,7 +2450,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>90</v>
       </c>
@@ -2472,7 +2458,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>92</v>
       </c>
@@ -2480,7 +2466,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>94</v>
       </c>
@@ -2488,7 +2474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="3:12">
       <c r="C6" t="s">
         <v>96</v>
       </c>
@@ -2496,7 +2482,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>98</v>
       </c>
@@ -2504,7 +2490,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="3:13">
       <c r="C8" t="s">
         <v>100</v>
       </c>
@@ -2512,7 +2498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="3:12">
       <c r="C9" t="s">
         <v>102</v>
       </c>
@@ -2520,7 +2506,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2528,7 +2514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>106</v>
       </c>
@@ -2536,35 +2522,35 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="12:12">
       <c r="L12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="12:12">
       <c r="L13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="12:12">
       <c r="L14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="12:12">
       <c r="L15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="27" t="s">
         <v>112</v>
       </c>
       <c r="L16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>114</v>
       </c>
@@ -2572,7 +2558,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>116</v>
       </c>
@@ -2580,65 +2566,67 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B30:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2646,26 +2634,28 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="13:13" ht="15">
-      <c r="M30" s="18"/>
-    </row>
-    <row r="41" spans="2:2" ht="15">
-      <c r="B41" s="17"/>
+    <row r="30" ht="15" spans="13:13">
+      <c r="M30" s="26"/>
+    </row>
+    <row r="41" ht="15" spans="2:2">
+      <c r="B41" s="25"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2680,311 +2670,307 @@
     <col min="12" max="12" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="B2" s="80" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="89" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="26" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="H4" s="82"/>
-      <c r="I4" s="12" t="s">
+    <row r="4" spans="8:11">
+      <c r="H4" s="10"/>
+      <c r="I4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6"/>
+      <c r="C8" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" s="8"/>
+      <c r="F9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="8:9">
+      <c r="H10" s="6"/>
+      <c r="I10" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11">
+      <c r="E12" s="16"/>
+      <c r="F12" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11">
+      <c r="E13" s="8"/>
+      <c r="F13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="8:9">
+      <c r="H14" s="10"/>
+      <c r="I14" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="8:9">
+      <c r="H15" s="10"/>
+      <c r="I15" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="10"/>
+      <c r="C17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="26" t="s">
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="82"/>
-      <c r="C6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="82"/>
-      <c r="C7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="81"/>
-      <c r="C8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="E9" s="84"/>
-      <c r="F9" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="H10" s="81"/>
-      <c r="I10" s="91" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="E11" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="E12" s="85"/>
-      <c r="F12" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="E13" s="84"/>
-      <c r="F13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="H14" s="82"/>
-      <c r="I14" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="H15" s="82"/>
-      <c r="I15" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="82"/>
-      <c r="C17" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="82"/>
-      <c r="C18" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="82"/>
-      <c r="C19" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="82"/>
-      <c r="C20" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="82"/>
-      <c r="C21" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="82"/>
-      <c r="C22" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="82"/>
-      <c r="C23" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="82"/>
-      <c r="C24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="81"/>
-      <c r="C25" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H12:H17"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="H2:H10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B16:B25"/>
@@ -2994,8 +2980,12 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="E21:E24"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="J12:J13"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
